--- a/system_information/skills/mental_skill_categories.xlsx
+++ b/system_information/skills/mental_skill_categories.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kretc\Desktop\Supersum_All_Ressources\Supersum\system_information\skills\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3829DC7F-C344-453A-995D-53FC4F28C3D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA9D1554-054B-4ED2-8302-FEAC2DA86F52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mental Resistances" sheetId="1" r:id="rId1"/>
     <sheet name="Mental Fortitude" sheetId="2" r:id="rId2"/>
     <sheet name="Mental Strengthening" sheetId="3" r:id="rId3"/>
     <sheet name="Mental Recovery" sheetId="4" r:id="rId4"/>
+    <sheet name="Mental Attacks" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="54">
   <si>
     <t>Name</t>
   </si>
@@ -54,21 +55,9 @@
     <t>Panic Resistance</t>
   </si>
   <si>
-    <t>Grit</t>
-  </si>
-  <si>
-    <t>Tenacity</t>
-  </si>
-  <si>
     <t>Mind Over Matter</t>
   </si>
   <si>
-    <t>Emotional Resilience</t>
-  </si>
-  <si>
-    <t>Fortitude</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">focuses on </t>
     </r>
@@ -101,27 +90,9 @@
     <t>is the mental and emotional resilience to endure pain, suffering, or adversity with courage, whether in the short or long term.</t>
   </si>
   <si>
-    <t>Emotional Detachment</t>
-  </si>
-  <si>
     <t>Concentration</t>
   </si>
   <si>
-    <t>Determination</t>
-  </si>
-  <si>
-    <t>Courage</t>
-  </si>
-  <si>
-    <t>Patience</t>
-  </si>
-  <si>
-    <t>Discipline</t>
-  </si>
-  <si>
-    <t>Self-Control</t>
-  </si>
-  <si>
     <t>Optimism</t>
   </si>
   <si>
@@ -167,13 +138,238 @@
     <t>Trauma Coping</t>
   </si>
   <si>
-    <t>Self-Motivation</t>
-  </si>
-  <si>
     <t>Emotional Intelligence Enhancement</t>
   </si>
   <si>
-    <t>Adaptability</t>
+    <t>Mind Control</t>
+  </si>
+  <si>
+    <t>Mind Reading</t>
+  </si>
+  <si>
+    <t>Thought Insertion</t>
+  </si>
+  <si>
+    <t>Memory Manipulation</t>
+  </si>
+  <si>
+    <t>Fear Resistance</t>
+  </si>
+  <si>
+    <t>Despair Resistance</t>
+  </si>
+  <si>
+    <t>Hypnosis Resistance</t>
+  </si>
+  <si>
+    <t>Memory Alteration Resistance</t>
+  </si>
+  <si>
+    <t>Mind-Numbing Resistance</t>
+  </si>
+  <si>
+    <r>
+      <t>Grit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (long-term persistence)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Tenacity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (short-term relentless pursuit)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Perseverance</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (balance between Grit and Tenacity)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Fortitude</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (enduring long-term mental/emotional strain)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Mental Toughness</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (handling short-term, high-intensity pressure)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Determination</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (laser focus on goals despite distractions)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Courage</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (facing fear and danger)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Patience</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (remaining calm during delays or slow progress)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Discipline</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (long-term control over habits)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Self-Control</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (momentary control over impulses)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Self-Motivation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (pushing oneself without external pressure)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Adaptability</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (mentally adjusting to changes)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Focus Under Pressure</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (sharp thinking in high-pressure situations)</t>
+    </r>
+  </si>
+  <si>
+    <t>Mental Control</t>
+  </si>
+  <si>
+    <t>Hypnosis</t>
+  </si>
+  <si>
+    <t>Brainwashing</t>
   </si>
 </sst>
 </file>
@@ -500,15 +696,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" customWidth="1"/>
+    <col min="1" max="1" width="32" customWidth="1"/>
     <col min="2" max="2" width="46" customWidth="1"/>
     <col min="3" max="3" width="71.85546875" customWidth="1"/>
   </cols>
@@ -551,17 +747,32 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -571,15 +782,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C43156C-992C-468C-8F30-00792F0C9735}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" customWidth="1"/>
+    <col min="1" max="1" width="83.140625" customWidth="1"/>
     <col min="2" max="2" width="43.5703125" customWidth="1"/>
     <col min="3" max="3" width="188.28515625" customWidth="1"/>
   </cols>
@@ -596,62 +807,82 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>8</v>
+      <c r="A2" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>12</v>
+      <c r="A4" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>18</v>
+      <c r="A5" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>19</v>
+      <c r="A6" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>20</v>
+      <c r="A7" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>21</v>
+      <c r="A8" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>22</v>
+      <c r="A9" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>38</v>
+      <c r="A10" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>40</v>
+      <c r="A11" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -661,103 +892,99 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B2F0DE7-A6A1-46E3-AC76-C21B409DC401}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="43.140625" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" customWidth="1"/>
-    <col min="3" max="3" width="207.85546875" customWidth="1"/>
+    <col min="2" max="2" width="207.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -769,9 +996,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFAB720D-9D8E-43E0-A8A2-E9BE4A998DE7}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -793,12 +1018,65 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71EAC5CF-0F6A-4F5C-AD1C-DA234D72642E}">
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" activeCellId="1" sqref="A5 A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="68" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
